--- a/python_src/nist_confusion/confusion_matrix_0.0001.xlsx
+++ b/python_src/nist_confusion/confusion_matrix_0.0001.xlsx
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9811320754716981</v>
+        <v>0.9811320754716982</v>
       </c>
       <c r="J16" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8715083798882683</v>
+        <v>0.8715083798882682</v>
       </c>
       <c r="L16" t="n">
         <v>0.0001</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8642659279778395</v>
+        <v>0.8642659279778394</v>
       </c>
       <c r="L16" t="n">
         <v>0.0001</v>
